--- a/biology/Botanique/Chaetocerotaceae/Chaetocerotaceae.xlsx
+++ b/biology/Botanique/Chaetocerotaceae/Chaetocerotaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chaetocerotaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Chaetocerotales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Chaetoceros, composé du préfixe chaet- « poil, soie », et du suffixe -cero, corne, littéralement « poil en forme de corne », en référence aux  
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Chaetoceros est composée de diatomées centriques bipolaires généralement coloniales.
 Les cellules sont cylindriques à base ovale ou circulaire contenant 1, 2 chloroplastes ou plus. Ces derniers semblent être quadrangulaires en vue cingulaire (cingulum) et elliptiques ou circulaires en vue valvulaire. Le manteau (mantle) est vertical et le cingulum est plus ou moins développé.
@@ -552,7 +568,7 @@
 La surface valvulaire a généralement des côtes radiales provenant d'un anneau central hyalin (transparent).
 Le rimoportula, lorsqu'il est présent, est situé au centre ou proche du centre, généralement avec un court tube externe.
 Dans le cingulum, les bandes intercalaires et la plèvre sont de type ouvert ou segmenté.
-Note : pour le vocabulaire ci-dessus, spécifique aux diatomées (notamment les mots en italique), voir le glossaire anglophone cité en rérérence[1].
+Note : pour le vocabulaire ci-dessus, spécifique aux diatomées (notamment les mots en italique), voir le glossaire anglophone cité en rérérence.
 </t>
         </is>
       </c>
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,9 +625,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liste des genres selon AlgaeBase                                           (5 août 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des genres selon AlgaeBase                                           (5 août 2022) :
 Acanthoceras Honigmann, 1909
 Bacteriastrum Shadbolt, 1854
 Chaetoceros Ehrenberg, 1844  genre type
@@ -654,9 +674,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Chaetocerotaceae Ralfs, 1861[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Chaetocerotaceae Ralfs, 1861.
 </t>
         </is>
       </c>
@@ -685,9 +707,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Pritchard, A. (1861). A history of infusoria, including the Desmidiaceae and Diatomaceae, British and foreign. Fourth edition enlarged and revised by J. T. Arlidge, M.B., B.A. Lond.; W. Archer, Esq.; J. Ralfs, M.R.C.S.L.; W. C. Williamson, Esq., F.R.S., and the author.  pp. [1]-xii, [1]-968, 40 pls. London: Whittaker and Co..</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pritchard, A. (1861). A history of infusoria, including the Desmidiaceae and Diatomaceae, British and foreign. Fourth edition enlarged and revised by J. T. Arlidge, M.B., B.A. Lond.; W. Archer, Esq.; J. Ralfs, M.R.C.S.L.; W. C. Williamson, Esq., F.R.S., and the author.  pp. -xii, -968, 40 pls. London: Whittaker and Co..</t>
         </is>
       </c>
     </row>
